--- a/2022C/文物样品信息汇总-填补缺失值.xlsx
+++ b/2022C/文物样品信息汇总-填补缺失值.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JupyterNotebook\mcm\2022C\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08881D99-BFDF-41AB-837B-3B16768B44A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -325,12 +331,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,8 +344,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,9 +379,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -385,15 +396,102 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B49E2A0C-D076-47AD-80D1-2ECD4BC6D026}" name="表1" displayName="表1" ref="A1:T68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:T68" xr:uid="{B49E2A0C-D076-47AD-80D1-2ECD4BC6D026}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="高钾"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{4031C254-A7B8-4821-B008-A79863C608BC}" name="文物编号"/>
+    <tableColumn id="2" xr3:uid="{9EE56B21-C0B1-4495-AAF8-D7275D25417A}" name="文物采样点"/>
+    <tableColumn id="3" xr3:uid="{77F50AB2-54C6-4BC9-8838-A6DA8BD1DFC3}" name="二氧化硅(SiO2)"/>
+    <tableColumn id="4" xr3:uid="{C29B1151-4C34-4156-AE98-B2F00FCF1AC8}" name="氧化钠(Na2O)"/>
+    <tableColumn id="5" xr3:uid="{B1829819-3728-40C6-B1FE-6FEC2B567B1A}" name="氧化钾(K2O)"/>
+    <tableColumn id="6" xr3:uid="{BF3F0982-8FF9-420D-8DE4-A48301C95E9C}" name="氧化钙(CaO)"/>
+    <tableColumn id="7" xr3:uid="{65CAF4B3-553E-4D35-8ABC-2ACC8F6D6C10}" name="氧化镁(MgO)"/>
+    <tableColumn id="8" xr3:uid="{C55255FC-7185-48D5-93D6-50929361093B}" name="氧化铝(Al2O3)"/>
+    <tableColumn id="9" xr3:uid="{1A52005E-DAB4-4C91-B4C6-BA2DE0AE6ED6}" name="氧化铁(Fe2O3)"/>
+    <tableColumn id="10" xr3:uid="{C301D9E0-312F-4389-BCA8-13A3A653EF52}" name="氧化铜(CuO)"/>
+    <tableColumn id="11" xr3:uid="{51A25BBC-84E3-4478-A893-6EA5FCE8FA8A}" name="氧化铅(PbO)"/>
+    <tableColumn id="12" xr3:uid="{89168C6C-310B-4816-BB57-F586CB7AA0FA}" name="氧化钡(BaO)"/>
+    <tableColumn id="13" xr3:uid="{F1F12C7F-B325-4B36-8039-A62BC811BFEE}" name="五氧化二磷(P2O5)"/>
+    <tableColumn id="14" xr3:uid="{956F30F1-C6B2-48F5-A7F2-FB6478ABB112}" name="氧化锶(SrO)"/>
+    <tableColumn id="15" xr3:uid="{22F45FBF-E380-493C-AE44-F9E5AFD3D73B}" name="氧化锡(SnO2)"/>
+    <tableColumn id="16" xr3:uid="{5049215F-668A-46DE-BB6A-B457AAB603A8}" name="二氧化硫(SO2)"/>
+    <tableColumn id="17" xr3:uid="{D3667173-8BC6-4640-A95B-351E13040755}" name="纹饰"/>
+    <tableColumn id="18" xr3:uid="{D9F3D86E-DE2A-4E44-B821-DEA5B19B4D11}" name="类型"/>
+    <tableColumn id="19" xr3:uid="{CDDA454B-4538-4D77-B5F7-CCB304CFEEB9}" name="颜色"/>
+    <tableColumn id="20" xr3:uid="{2702588F-45A6-48DF-9465-3D2F1BA5D302}" name="表面风化"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +565,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,6 +617,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +810,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="10" max="12" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -807,7 +957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -869,7 +1019,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -889,7 +1039,7 @@
         <v>5.87</v>
       </c>
       <c r="G4">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H4">
         <v>5.5</v>
@@ -931,7 +1081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -948,13 +1098,13 @@
         <v>5.19</v>
       </c>
       <c r="F5">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -993,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1022,7 +1172,7 @@
         <v>2.06</v>
       </c>
       <c r="J6">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1055,7 +1205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1093,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="N7">
         <v>0.06</v>
@@ -1117,7 +1267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1140,13 +1290,13 @@
         <v>1.73</v>
       </c>
       <c r="H8">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="I8">
         <v>6.04</v>
       </c>
       <c r="J8">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="K8">
         <v>0.35</v>
@@ -1179,7 +1329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1187,7 +1337,7 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>67.65000000000001</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1208,7 +1358,7 @@
         <v>2.39</v>
       </c>
       <c r="J9">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="K9">
         <v>0.2</v>
@@ -1241,7 +1391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1303,7 +1453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1365,7 +1515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1373,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1388,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1397,7 +1547,7 @@
         <v>3.14</v>
       </c>
       <c r="K12">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="L12">
         <v>30.62</v>
@@ -1427,7 +1577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1489,7 +1639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1512,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I14">
         <v>0.26</v>
@@ -1551,7 +1701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1559,7 +1709,7 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>33.59</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1589,7 +1739,7 @@
         <v>14.61</v>
       </c>
       <c r="M15">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="N15">
         <v>0.37</v>
@@ -1613,7 +1763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1621,7 +1771,7 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>94.29000000000001</v>
+        <v>94.29</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1639,7 +1789,7 @@
         <v>1.46</v>
       </c>
       <c r="I16">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J16">
         <v>1.65</v>
@@ -1675,7 +1825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1692,7 +1842,7 @@
         <v>12.53</v>
       </c>
       <c r="F17">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1704,7 +1854,7 @@
         <v>2.88</v>
       </c>
       <c r="J17">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1737,7 +1887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1799,7 +1949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1807,7 +1957,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>65.18000000000001</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="D19">
         <v>2.1</v>
@@ -1861,7 +2011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1869,7 +2019,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>79.45999999999999</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1902,7 +2052,7 @@
         <v>1.36</v>
       </c>
       <c r="N20">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O20">
         <v>2.36</v>
@@ -1923,7 +2073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1985,7 +2135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2017,7 +2167,7 @@
         <v>4.78</v>
       </c>
       <c r="K22">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L22">
         <v>23.55</v>
@@ -2047,7 +2197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2055,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>76.68000000000001</v>
+        <v>76.680000000000007</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2085,7 +2235,7 @@
         <v>1.97</v>
       </c>
       <c r="M23">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2109,7 +2259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2117,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>92.34999999999999</v>
+        <v>92.35</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2138,7 +2288,7 @@
         <v>0.35</v>
       </c>
       <c r="J24">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2171,7 +2321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2233,7 +2383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2262,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="K26">
         <v>29.14</v>
@@ -2271,7 +2421,7 @@
         <v>26.23</v>
       </c>
       <c r="M26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N26">
         <v>0.91</v>
@@ -2295,7 +2445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2324,7 +2474,7 @@
         <v>1.55</v>
       </c>
       <c r="J27">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K27">
         <v>31.9</v>
@@ -2357,7 +2507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2392,7 +2542,7 @@
         <v>29.92</v>
       </c>
       <c r="L28">
-        <v>35.45</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="M28">
         <v>6.04</v>
@@ -2419,7 +2569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2481,7 +2631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2498,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="G30">
         <v>0.54</v>
       </c>
       <c r="H30">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I30">
         <v>0.2</v>
@@ -2543,7 +2693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2605,7 +2755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2631,7 +2781,7 @@
         <v>14.34</v>
       </c>
       <c r="I32">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="J32">
         <v>0.74</v>
@@ -2640,7 +2790,7 @@
         <v>12.31</v>
       </c>
       <c r="L32">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="M32">
         <v>0.41</v>
@@ -2667,7 +2817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2675,7 +2825,7 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>34.34</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2690,7 +2840,7 @@
         <v>0.98</v>
       </c>
       <c r="H33">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I33">
         <v>2.12</v>
@@ -2729,7 +2879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -2791,7 +2941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -2853,7 +3003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -2861,7 +3011,7 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>69.70999999999999</v>
+        <v>69.709999999999994</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2885,7 +3035,7 @@
         <v>0.11</v>
       </c>
       <c r="K36">
-        <v>19.76</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="L36">
         <v>4.88</v>
@@ -2915,7 +3065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -2923,7 +3073,7 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>75.51000000000001</v>
+        <v>75.510000000000005</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2977,7 +3127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3039,7 +3189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3101,7 +3251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3112,10 +3262,10 @@
         <v>39.57</v>
       </c>
       <c r="D40">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="E40">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F40">
         <v>0.37</v>
@@ -3139,7 +3289,7 @@
         <v>10.83</v>
       </c>
       <c r="M40">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N40">
         <v>0.22</v>
@@ -3163,7 +3313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -3195,7 +3345,7 @@
         <v>3.01</v>
       </c>
       <c r="K41">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="L41">
         <v>10.34</v>
@@ -3225,7 +3375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -3251,7 +3401,7 @@
         <v>2.57</v>
       </c>
       <c r="I42">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J42">
         <v>0.73</v>
@@ -3260,7 +3410,7 @@
         <v>49.31</v>
       </c>
       <c r="L42">
-        <v>9.789999999999999</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="M42">
         <v>0.48</v>
@@ -3287,7 +3437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -3304,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3325,7 +3475,7 @@
         <v>7.22</v>
       </c>
       <c r="M43">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N43">
         <v>0.61</v>
@@ -3349,7 +3499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -3381,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>70.20999999999999</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="L44">
         <v>6.69</v>
@@ -3411,7 +3561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -3473,7 +3623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -3493,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H46">
         <v>5.66</v>
@@ -3535,7 +3685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -3555,7 +3705,7 @@
         <v>0.79</v>
       </c>
       <c r="G47">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H47">
         <v>3.53</v>
@@ -3597,7 +3747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -3659,7 +3809,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43</v>
       </c>
@@ -3721,7 +3871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>44</v>
       </c>
@@ -3783,7 +3933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>45</v>
       </c>
@@ -3845,7 +3995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
@@ -3907,7 +4057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>47</v>
       </c>
@@ -3921,7 +4071,7 @@
         <v>4.66</v>
       </c>
       <c r="E53">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F53">
         <v>0.87</v>
@@ -3969,7 +4119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>48</v>
       </c>
@@ -4007,7 +4157,7 @@
         <v>7.31</v>
       </c>
       <c r="M54">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N54">
         <v>0.25</v>
@@ -4031,7 +4181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>49</v>
       </c>
@@ -4066,7 +4216,7 @@
         <v>23.02</v>
       </c>
       <c r="L55">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="M55">
         <v>4.32</v>
@@ -4093,7 +4243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -4155,7 +4305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -4184,7 +4334,7 @@
         <v>0.33</v>
       </c>
       <c r="J57">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K57">
         <v>44</v>
@@ -4217,7 +4367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>50</v>
       </c>
@@ -4279,7 +4429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>51</v>
       </c>
@@ -4341,7 +4491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>51</v>
       </c>
@@ -4364,7 +4514,7 @@
         <v>1.45</v>
       </c>
       <c r="H60">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I60">
         <v>0.42</v>
@@ -4403,7 +4553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>52</v>
       </c>
@@ -4423,10 +4573,10 @@
         <v>2.27</v>
       </c>
       <c r="G61">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H61">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I61">
         <v>0.23</v>
@@ -4438,7 +4588,7 @@
         <v>47.42</v>
       </c>
       <c r="L61">
-        <v>8.640000000000001</v>
+        <v>8.64</v>
       </c>
       <c r="M61">
         <v>5.71</v>
@@ -4465,7 +4615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>53</v>
       </c>
@@ -4485,7 +4635,7 @@
         <v>0.78</v>
       </c>
       <c r="G62">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H62">
         <v>6.06</v>
@@ -4527,7 +4677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>54</v>
       </c>
@@ -4550,7 +4700,7 @@
         <v>1.28</v>
       </c>
       <c r="H63">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4589,7 +4739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -4609,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H64">
         <v>3.65</v>
@@ -4630,7 +4780,7 @@
         <v>14.13</v>
       </c>
       <c r="N64">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -4651,7 +4801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>55</v>
       </c>
@@ -4668,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4713,7 +4863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>56</v>
       </c>
@@ -4775,7 +4925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>57</v>
       </c>
@@ -4798,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K67">
         <v>45.1</v>
@@ -4837,7 +4987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>58</v>
       </c>
@@ -4900,6 +5050,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/2022C/文物样品信息汇总-填补缺失值.xlsx
+++ b/2022C/文物样品信息汇总-填补缺失值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JupyterNotebook\mcm\2022C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08881D99-BFDF-41AB-837B-3B16768B44A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699A199-B4ED-4761-A584-281021114621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,32 +341,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -380,28 +447,70 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -416,23 +525,729 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color auto="1"/>
+          <color theme="0"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -456,35 +1271,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B49E2A0C-D076-47AD-80D1-2ECD4BC6D026}" name="表1" displayName="表1" ref="A1:T68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:T68" xr:uid="{B49E2A0C-D076-47AD-80D1-2ECD4BC6D026}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="高钾"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90F16149-68DA-40AA-8204-80680A497CF6}" name="表1" displayName="表1" ref="A1:T68" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="22">
+  <autoFilter ref="A1:T68" xr:uid="{90F16149-68DA-40AA-8204-80680A497CF6}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{4031C254-A7B8-4821-B008-A79863C608BC}" name="文物编号"/>
-    <tableColumn id="2" xr3:uid="{9EE56B21-C0B1-4495-AAF8-D7275D25417A}" name="文物采样点"/>
-    <tableColumn id="3" xr3:uid="{77F50AB2-54C6-4BC9-8838-A6DA8BD1DFC3}" name="二氧化硅(SiO2)"/>
-    <tableColumn id="4" xr3:uid="{C29B1151-4C34-4156-AE98-B2F00FCF1AC8}" name="氧化钠(Na2O)"/>
-    <tableColumn id="5" xr3:uid="{B1829819-3728-40C6-B1FE-6FEC2B567B1A}" name="氧化钾(K2O)"/>
-    <tableColumn id="6" xr3:uid="{BF3F0982-8FF9-420D-8DE4-A48301C95E9C}" name="氧化钙(CaO)"/>
-    <tableColumn id="7" xr3:uid="{65CAF4B3-553E-4D35-8ABC-2ACC8F6D6C10}" name="氧化镁(MgO)"/>
-    <tableColumn id="8" xr3:uid="{C55255FC-7185-48D5-93D6-50929361093B}" name="氧化铝(Al2O3)"/>
-    <tableColumn id="9" xr3:uid="{1A52005E-DAB4-4C91-B4C6-BA2DE0AE6ED6}" name="氧化铁(Fe2O3)"/>
-    <tableColumn id="10" xr3:uid="{C301D9E0-312F-4389-BCA8-13A3A653EF52}" name="氧化铜(CuO)"/>
-    <tableColumn id="11" xr3:uid="{51A25BBC-84E3-4478-A893-6EA5FCE8FA8A}" name="氧化铅(PbO)"/>
-    <tableColumn id="12" xr3:uid="{89168C6C-310B-4816-BB57-F586CB7AA0FA}" name="氧化钡(BaO)"/>
-    <tableColumn id="13" xr3:uid="{F1F12C7F-B325-4B36-8039-A62BC811BFEE}" name="五氧化二磷(P2O5)"/>
-    <tableColumn id="14" xr3:uid="{956F30F1-C6B2-48F5-A7F2-FB6478ABB112}" name="氧化锶(SrO)"/>
-    <tableColumn id="15" xr3:uid="{22F45FBF-E380-493C-AE44-F9E5AFD3D73B}" name="氧化锡(SnO2)"/>
-    <tableColumn id="16" xr3:uid="{5049215F-668A-46DE-BB6A-B457AAB603A8}" name="二氧化硫(SO2)"/>
-    <tableColumn id="17" xr3:uid="{D3667173-8BC6-4640-A95B-351E13040755}" name="纹饰"/>
-    <tableColumn id="18" xr3:uid="{D9F3D86E-DE2A-4E44-B821-DEA5B19B4D11}" name="类型"/>
-    <tableColumn id="19" xr3:uid="{CDDA454B-4538-4D77-B5F7-CCB304CFEEB9}" name="颜色"/>
-    <tableColumn id="20" xr3:uid="{2702588F-45A6-48DF-9465-3D2F1BA5D302}" name="表面风化"/>
+    <tableColumn id="1" xr3:uid="{AF51326D-04D8-4CA8-9DF0-9299DFCA2D1B}" name="文物编号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{621C8C14-2A6D-4461-96D1-87088899AD8E}" name="文物采样点" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AED0F274-73D5-4C59-9D21-14CD3BF34D57}" name="二氧化硅(SiO2)" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{76F98F70-D14E-4A37-893F-1D9A6873D7C8}" name="氧化钠(Na2O)" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{0A8CFCD8-A42B-4423-AC72-670EDDE17585}" name="氧化钾(K2O)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{95B31B19-9548-4C1F-B44D-D11E6484CA50}" name="氧化钙(CaO)" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5A4BC8F2-C93B-44E8-AAD8-2B2F71CD887D}" name="氧化镁(MgO)" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6BBD472E-0A7B-40C0-9BFF-6633BBF5B3E7}" name="氧化铝(Al2O3)" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{47E6B040-DE04-4C95-97E7-653E9776E694}" name="氧化铁(Fe2O3)" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{18F7EA04-B526-42DC-AAC0-C8BCD1A5DF76}" name="氧化铜(CuO)" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{4882A81C-B42D-4FFB-8BE2-F639C376A167}" name="氧化铅(PbO)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{41029CAC-6DD1-4FDB-B714-A61AE935743A}" name="氧化钡(BaO)" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{DCCDEDC7-B78E-4C6A-80D8-C32C89735DC6}" name="五氧化二磷(P2O5)" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{75BF01D3-4CEC-4EFC-88A2-6CFCEF1B7267}" name="氧化锶(SrO)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{6E5BAC6D-1D0B-4903-AC7C-23B69DA5C33C}" name="氧化锡(SnO2)" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{D8A25227-AA27-4D1A-B042-E1F91F556174}" name="二氧化硫(SO2)" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{CB7AD147-D837-425F-9B36-42B0E1DE00FD}" name="纹饰" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{16B0C0BB-E24F-4AA4-8088-4DB6BD1DC039}" name="类型" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{DD1416FA-6BF7-4629-8407-904FD4C2AF28}" name="颜色" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{29F35A1D-B263-4A79-BE85-ACDFBD5D6B61}" name="表面风化" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -814,7 +1623,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -834,4223 +1643,4223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>69.33</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>9.99</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>6.32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0.87</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>3.93</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>1.74</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>3.87</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>1.17</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
         <v>0.39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>36.28</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>1.05</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>2.34</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>1.18</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>5.73</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>1.86</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>0.26</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>47.43</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>3.57</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>0.19</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>61.71</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>12.37</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>5.87</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>5.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>2.16</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>5.09</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>1.41</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>2.86</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>0.7</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>0.1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>87.05</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>5.19</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>0.78</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.25</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>0.66</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>65.88</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>9.67</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>7.12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>1.56</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>6.44</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>2.06</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
         <v>0.79</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <v>0.36</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>61.58</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <v>10.95</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>7.35</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>1.77</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>7.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>2.62</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>3.27</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>0.94</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>0.06</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>0.47</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>59.81</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>7.68</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>5.41</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>1.73</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>10.050000000000001</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>6.04</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>2.1800000000000002</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>0.35</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>0.97</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>4.5</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>0.12</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>67.650000000000006</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>7.37</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>1.98</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>11.15</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>2.39</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>2.5099999999999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>0.2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>1.38</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>4.18</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>0.11</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>92.63</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <v>1.07</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>1.98</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>0.17</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>3.24</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
         <v>0.61</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>20.14</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>1.48</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>1.34</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>10.41</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>28.68</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>31.23</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>3.59</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>0.37</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>2.58</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
         <v>3.19</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <v>3.14</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>32.450000000000003</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>30.62</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>7.56</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>0.53</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>15.03</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>95.02</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.59</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.62</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>1.32</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0.32</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>1.55</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>0.35</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>96.77</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.92</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>0.21</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0.81</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>0.26</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>0.84</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>33.590000000000003</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.21</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>3.51</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>0.71</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>2.69</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
         <v>4.93</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>25.39</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>14.61</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>9.3800000000000008</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>0.37</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>94.29</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>1.01</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>0.72</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
         <v>1.46</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>1.65</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
         <v>0.15</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>59.01</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>2.86</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>12.53</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>6.16</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>2.88</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>4.7300000000000004</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
         <v>1.27</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>62.47</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>3.38</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>12.28</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <v>8.23</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <v>0.66</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>9.23</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>0.5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>0.47</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
         <v>1.62</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
         <v>0.16</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>65.180000000000007</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>2.1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>14.52</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>8.27</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>0.52</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>6.18</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.42</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>1.07</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>0.11</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.04</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>79.459999999999994</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>9.42</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <v>1.53</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>3.05</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
         <v>1.36</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>2.36</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>29.64</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>2.93</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.59</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>3.57</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>1.33</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>3.51</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>42.82</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>5.35</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>8.83</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>0.19</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>37.36</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>0.71</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>5.45</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>1.51</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>4.78</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>23.55</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>5.75</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>76.680000000000007</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>4.71</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>1.22</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>6.19</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>2.37</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>3.28</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>1.97</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T23" t="s">
+      <c r="T23" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>92.35</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>0.74</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <v>1.66</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <v>0.64</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>3.5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>0.35</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
         <v>0.21</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>53.79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>7.92</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>0.5</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>0.71</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>1.42</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <v>2.99</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>16.98</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>11.86</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
         <v>0.33</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>31.94</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
         <v>0.47</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
         <v>1.59</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
         <v>8.4600000000000009</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>29.14</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>26.23</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="6">
         <v>0.91</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T26" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>50.61</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>2.31</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>0.63</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>1.9</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>1.55</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>31.9</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>6.65</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>0.19</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>0.2</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T27" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>3.72</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>0.4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <v>3.01</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>1.18</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <v>3.6</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>29.92</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>35.450000000000003</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>6.04</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="6">
         <v>0.62</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
         <v>15.95</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>19.79</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
         <v>1.44</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <v>0.7</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>10.57</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>29.53</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>32.25</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>3.13</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>0.45</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
         <v>1.96</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T29" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>92.72</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
         <v>0.94</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>0.54</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>0.2</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>1.54</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
         <v>0.36</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T30" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>68.08</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <v>0.26</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>1.34</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <v>4.7</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0.41</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>0.33</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>17.14</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>4.04</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>1.04</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="4">
         <v>0.12</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="4">
         <v>0.23</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T31" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>63.3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>0.92</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>0.3</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <v>2.98</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <v>1.49</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>14.34</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>0.81</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>0.74</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>12.31</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="6">
         <v>0.41</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="6">
         <v>0.25</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T32" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>34.340000000000003</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
         <v>1.41</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>4.49</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>0.98</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>2.12</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>39.22</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>10.29</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
         <v>0.35</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="4">
         <v>0.4</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T33" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>36.93</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
         <v>4.24</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6">
         <v>0.51</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="6">
         <v>3.86</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="6">
         <v>2.74</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
         <v>37.74</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>10.35</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="6">
         <v>1.41</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="6">
         <v>0.48</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="6">
         <v>0.44</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T34" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>65.91</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
         <v>1.6</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>0.89</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>3.11</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>4.59</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>0.44</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>16.55</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="4">
         <v>3.42</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <v>1.62</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>0.3</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="T35" t="s">
+      <c r="T35" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>69.709999999999994</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>0.21</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <v>0.46</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
         <v>2.36</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="6">
         <v>1</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="6">
         <v>0.11</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="6">
         <v>19.760000000000002</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="6">
         <v>4.88</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="6">
         <v>0.17</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>75.510000000000005</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
         <v>0.15</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>0.64</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <v>2.35</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
         <v>0.47</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>16.16</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>3.55</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>0.13</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T37" t="s">
+      <c r="T37" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>35.78</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>0.25</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>0.78</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
         <v>1.62</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="6">
         <v>0.47</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="6">
         <v>1.51</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="6">
         <v>46.55</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <v>10</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="6">
         <v>0.34</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="6">
         <v>0.22</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T38" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>65.91</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
         <v>0.38</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
         <v>1.44</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>0.17</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="4">
         <v>0.16</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>22.05</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="4">
         <v>5.68</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="4">
         <v>0.42</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
+      </c>
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T39" t="s">
+      <c r="T39" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>39.57</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>0.37</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
         <v>1.6</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="6">
         <v>0.32</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="6">
         <v>0.68</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="6">
         <v>41.61</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>10.83</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="6">
         <v>0.22</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R40" t="s">
+      <c r="R40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T40" t="s">
+      <c r="T40" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>60.12</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <v>0.23</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>0.89</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
         <v>2.72</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
         <v>3.01</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>17.239999999999998</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="4">
         <v>10.34</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>1.46</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="4">
         <v>0.31</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
         <v>3.66</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R41" t="s">
+      <c r="R41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T41" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>32.93</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>1.38</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
         <v>0.68</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
         <v>2.57</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="6">
         <v>0.73</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="6">
         <v>49.31</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="6">
         <v>9.7899999999999991</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="6">
         <v>0.48</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="6">
         <v>0.41</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T42" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>26.25</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
         <v>0.5</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
         <v>0.88</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>61.03</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="4">
         <v>7.22</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="4">
         <v>0.61</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="T43" t="s">
+      <c r="T43" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>16.71</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
         <v>1.87</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
         <v>0.45</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="6">
         <v>0.19</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
         <v>70.209999999999994</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="6">
         <v>6.69</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="6">
         <v>1.77</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="6">
         <v>0.68</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="T44" t="s">
+      <c r="T44" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>18.46</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
         <v>0.44</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="4">
         <v>4.96</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>2.73</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="4">
         <v>3.33</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>1.79</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="4">
         <v>0.19</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>44.12</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="4">
         <v>9.76</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="4">
         <v>7.46</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="4">
         <v>0.47</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T45" t="s">
+      <c r="T45" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>51.33</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>5.68</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>0.35</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="6">
         <v>5.66</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
         <v>2.72</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="6">
         <v>20.12</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="6">
         <v>10.88</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T46" t="s">
+      <c r="T46" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>51.26</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>5.74</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>0.15</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>0.79</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <v>3.53</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
         <v>2.67</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>21.88</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="4">
         <v>10.47</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="4">
         <v>0.08</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="4">
         <v>0.35</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T47" t="s">
+      <c r="T47" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>12.41</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
         <v>5.24</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <v>0.89</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>2.25</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="6">
         <v>0.76</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="6">
         <v>5.35</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="6">
         <v>59.85</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="6">
         <v>7.29</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
         <v>0.64</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S48" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T48" t="s">
+      <c r="T48" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>21.7</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
         <v>6.4</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>0.95</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="4">
         <v>3.41</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>1.39</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="4">
         <v>1.51</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>44.75</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="4">
         <v>3.26</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="4">
         <v>12.83</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="4">
         <v>0.47</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T49" t="s">
+      <c r="T49" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>60.74</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>3.06</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
         <v>0.2</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="6">
         <v>2.14</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
         <v>12.69</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="6">
         <v>0.77</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="6">
         <v>0.43</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="6">
         <v>13.61</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>5.22</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
         <v>0.26</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T50" t="s">
+      <c r="T50" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>61.28</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="4">
         <v>2.66</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>0.11</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>0.84</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>0.74</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>0.53</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>15.99</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>10.96</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
         <v>0.23</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R51" t="s">
+      <c r="R51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T51" t="s">
+      <c r="T51" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>46</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>55.21</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>0.25</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
         <v>1.67</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="6">
         <v>4.79</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <v>0.77</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="6">
         <v>25.25</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>10.06</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="6">
         <v>0.2</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="6">
         <v>0.43</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R52" t="s">
+      <c r="R52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T52" t="s">
+      <c r="T52" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>47</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <v>51.54</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="4">
         <v>4.66</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>0.87</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>0.61</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="4">
         <v>3.06</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
         <v>0.65</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="4">
         <v>25.4</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="4">
         <v>9.23</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="4">
         <v>0.1</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="4">
         <v>0.85</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R53" t="s">
+      <c r="R53" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T53" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>48</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>53.33</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>0.8</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="6">
         <v>0.32</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="6">
         <v>2.82</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="6">
         <v>1.54</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="6">
         <v>13.65</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="6">
         <v>1.03</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
         <v>15.71</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="6">
         <v>7.31</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="6">
         <v>0.25</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="6">
         <v>1.31</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="P54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T54" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>49</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <v>54.61</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
         <v>0.3</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>2.08</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>1.2</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="4">
         <v>6.5</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <v>1.27</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="4">
         <v>0.45</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>23.02</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="4">
         <v>4.32</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="4">
         <v>0.3</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="O55" s="4">
+        <v>0</v>
+      </c>
+      <c r="P55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R55" t="s">
+      <c r="R55" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T55" t="s">
+      <c r="T55" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>49</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>28.79</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
         <v>4.58</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="6">
         <v>1.47</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="6">
         <v>5.38</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="6">
         <v>2.74</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="6">
         <v>0.7</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="6">
         <v>34.18</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="6">
         <v>6.1</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="6">
         <v>11.1</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="6">
         <v>0.46</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R56" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="T56" t="s">
+      <c r="T56" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>50</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <v>17.98</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
         <v>3.19</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>0.47</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="4">
         <v>1.87</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <v>0.33</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="4">
         <v>44</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="4">
         <v>14.2</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="4">
         <v>6.34</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="4">
         <v>0.66</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="O57" s="4">
+        <v>0</v>
+      </c>
+      <c r="P57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R57" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T57" t="s">
+      <c r="T57" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>50</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>45.02</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
         <v>3.12</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="6">
         <v>0.54</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="6">
         <v>4.16</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <v>0.7</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="6">
         <v>30.61</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="6">
         <v>6.22</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="6">
         <v>6.34</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="6">
         <v>0.23</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="s">
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S58" t="s">
+      <c r="S58" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T58" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>51</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>24.61</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
         <v>3.58</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>1.19</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>5.25</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <v>1.19</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="4">
         <v>1.37</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="4">
         <v>40.24</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="4">
         <v>8.94</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="4">
         <v>8.1</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>0.39</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="4">
         <v>0.47</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="P59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S59" t="s">
+      <c r="S59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T59" t="s">
+      <c r="T59" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>21.35</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
         <v>5.13</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="6">
         <v>1.45</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="6">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="6">
         <v>0.42</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="6">
         <v>0.75</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="6">
         <v>51.34</v>
       </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
         <v>8.75</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S60" t="s">
+      <c r="S60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T60" t="s">
+      <c r="T60" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>52</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <v>25.74</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>1.22</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
         <v>2.27</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <v>0.23</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="4">
         <v>0.7</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="4">
         <v>47.42</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="4">
         <v>8.64</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="4">
         <v>5.71</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="4">
         <v>0.44</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="O61" s="4">
+        <v>0</v>
+      </c>
+      <c r="P61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S61" t="s">
+      <c r="S61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T61" t="s">
+      <c r="T61" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>63.66</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>3.04</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="6">
         <v>0.11</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <v>0.78</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="6">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="6">
         <v>6.06</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
         <v>0.54</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="6">
         <v>13.66</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="6">
         <v>8.99</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
         <v>0.27</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S62" t="s">
+      <c r="S62" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T62" t="s">
+      <c r="T62" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>54</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>22.28</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
         <v>0.32</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>3.19</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>1.28</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="4">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <v>0.83</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="4">
         <v>55.46</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="4">
         <v>7.04</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="4">
         <v>4.24</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="4">
         <v>0.88</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="O63" s="4">
+        <v>0</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S63" t="s">
+      <c r="S63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T63" t="s">
+      <c r="T63" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>54</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>17.11</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="6">
         <v>3.65</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
         <v>1.34</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="6">
         <v>58.46</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
         <v>14.13</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="6">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S64" t="s">
+      <c r="S64" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T64" t="s">
+      <c r="T64" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>55</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <v>49.01</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="4">
         <v>2.71</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
         <v>1.45</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
         <v>0.86</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="4">
         <v>32.92</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="4">
         <v>7.95</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="4">
         <v>0.35</v>
       </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="4">
+        <v>0</v>
+      </c>
+      <c r="P65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T65" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>56</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>29.15</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
         <v>1.21</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
         <v>1.85</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
         <v>0.79</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="6">
         <v>41.25</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="6">
         <v>15.45</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="6">
         <v>2.54</v>
       </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R66" t="s">
+      <c r="R66" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S66" t="s">
+      <c r="S66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T66" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>57</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <v>25.42</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
         <v>1.31</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
         <v>2.1800000000000002</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="4">
         <v>45.1</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="4">
         <v>17.3</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4">
+        <v>0</v>
+      </c>
+      <c r="O67" s="4">
+        <v>0</v>
+      </c>
+      <c r="P67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R67" t="s">
+      <c r="R67" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S67" t="s">
+      <c r="S67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T67" t="s">
+      <c r="T67" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>58</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>30.39</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
         <v>0.34</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="6">
         <v>3.49</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="6">
         <v>0.79</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="6">
         <v>3.52</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="6">
         <v>0.86</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="6">
         <v>3.13</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="6">
         <v>39.35</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="6">
         <v>7.66</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="6">
         <v>8.99</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="6">
         <v>0.24</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="s">
+      <c r="O68" s="6">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="R68" t="s">
+      <c r="R68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="S68" t="s">
+      <c r="S68" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="T68" t="s">
+      <c r="T68" s="6" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
